--- a/pidis/expdata/10002.xlsx
+++ b/pidis/expdata/10002.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jethier/Documents/fitpack/database/pdis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/pidis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307C940B-4759-A24F-B61B-EAE2EEB5D49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33560" windowHeight="17780" tabRatio="500"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
   <si>
     <t>Elab</t>
   </si>
@@ -50,15 +60,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>A1p(stat)_u</t>
-  </si>
-  <si>
-    <t>A1p(syst)</t>
-  </si>
-  <si>
-    <t>A1d(syst)*_u</t>
-  </si>
-  <si>
     <t>COMPASS</t>
   </si>
   <si>
@@ -69,12 +70,21 @@
   </si>
   <si>
     <t>norm_c</t>
+  </si>
+  <si>
+    <t>stat_u</t>
+  </si>
+  <si>
+    <t>syst</t>
+  </si>
+  <si>
+    <t>syst_u</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -110,19 +120,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -133,6 +140,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -400,624 +410,611 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="26" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>160</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3">
+    </row>
+    <row r="2" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>160</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J2" s="3">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="K2" s="3">
-        <v>7.9900000000000006E-3</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="26" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>160</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="J2" s="2">
+        <f>G2*0.06</f>
+        <v>3.5999999999999997E-4</v>
+      </c>
+      <c r="K2" s="2">
+        <f>(I2^2-J2^2)^0.5</f>
+        <v>7.9918958952178553E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>160</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1.2</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
         <v>1.9E-2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J3" s="3">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="K3" s="3">
-        <v>5.8900000000000003E-3</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="26" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>160</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J16" si="0">G3*0.06</f>
+        <v>1.14E-3</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K16" si="1">(I3^2-J3^2)^0.5</f>
+        <v>5.8907045419032862E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>160</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1.37</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J4" s="3">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="K4" s="3">
-        <v>4.5399999999999998E-3</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="26" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>160</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5376205218153713E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>160</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1.59</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>0.01</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J5" s="3">
-        <v>2E-3</v>
-      </c>
-      <c r="K5" s="3">
-        <v>4.5900000000000003E-3</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="26" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>160</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.98E-3</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5912525524087651E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>160</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
         <v>1.47E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>2.14</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J6" s="3">
-        <v>2.8E-3</v>
-      </c>
-      <c r="K6" s="3">
-        <v>2.8400000000000001E-3</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="26" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>160</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.82E-3</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8368292158676028E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>160</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
         <v>2.47E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>3.24</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J7" s="3">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="K7" s="3">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="26" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>160</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5599999999999998E-3</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8995384342252614E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>160</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>4.3600000000000003</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2">
         <v>0.115</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="K8" s="3">
-        <v>5.7800000000000004E-3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="26" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>160</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>5.7784080852774661E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>160</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
         <v>4.87E-2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>6.05</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2">
         <v>0.13</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>0.01</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="K9" s="3">
-        <v>6.2599999999999999E-3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="26" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>160</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>6.2577951388648068E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>160</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>9.42</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2">
         <v>0.17199999999999999</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="J10" s="3">
-        <v>1.03E-2</v>
-      </c>
-      <c r="K10" s="3">
-        <v>6.1199999999999996E-3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="26" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>160</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0319999999999999E-2</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>6.1235283946430765E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>160</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
         <v>0.122</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>14.9</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2">
         <v>0.218</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J11" s="3">
-        <v>1.3100000000000001E-2</v>
-      </c>
-      <c r="K11" s="3">
-        <v>7.3400000000000002E-3</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="26" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>160</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.308E-2</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
+        <v>7.3425880995736112E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>160</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
         <v>0.17199999999999999</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>20.9</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2">
         <v>0.28599999999999998</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>0.02</v>
       </c>
-      <c r="J12" s="3">
-        <v>1.72E-2</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1.027E-2</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="26" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>160</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7159999999999998E-2</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0272993721403712E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>160</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
         <v>0.222</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>26.7</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2">
         <v>0.44600000000000001</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>0.03</v>
       </c>
-      <c r="J13" s="3">
-        <v>2.6800000000000001E-2</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1.3559999999999999E-2</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="26" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>160</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6759999999999999E-2</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3561061905322903E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>160</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>34.6</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2">
         <v>0.45300000000000001</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="J14" s="3">
-        <v>2.7199999999999998E-2</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1.6889999999999999E-2</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="26" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>160</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7179999999999999E-2</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6889274703195515E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>160</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.40500000000000003</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>47.1</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2">
         <v>0.59399999999999997</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="J15" s="3">
-        <v>3.56E-2</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2.4060000000000002E-2</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="26" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>160</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5639999999999998E-2</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4058063097431595E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>160</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
         <v>0.56799999999999995</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>62.1</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2">
         <v>0.85499999999999998</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>9.4E-2</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="K16" s="3">
-        <v>4.4639999999999999E-2</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>10</v>
+      <c r="K16" s="2">
+        <f t="shared" si="1"/>
+        <v>4.4635299931780462E-2</v>
       </c>
     </row>
   </sheetData>
